--- a/Code/Results/Cases/Case_6_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.71677274073958</v>
+        <v>13.93091773841535</v>
       </c>
       <c r="C2">
-        <v>9.145275292176848</v>
+        <v>4.957365063298648</v>
       </c>
       <c r="D2">
-        <v>6.555270951880224</v>
+        <v>6.436892235699193</v>
       </c>
       <c r="E2">
-        <v>5.701533286336375</v>
+        <v>5.605770439749502</v>
       </c>
       <c r="F2">
-        <v>68.79374416228301</v>
+        <v>71.09562575308756</v>
       </c>
       <c r="G2">
-        <v>2.181330929108729</v>
+        <v>2.220134870282272</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.141066495218353</v>
+        <v>7.707399025964809</v>
       </c>
       <c r="K2">
-        <v>14.84476891242808</v>
+        <v>10.91384921965045</v>
       </c>
       <c r="L2">
-        <v>5.63725011375085</v>
+        <v>5.401589890143577</v>
       </c>
       <c r="M2">
-        <v>11.86090634469711</v>
+        <v>10.16727413527376</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.86229407814393</v>
+        <v>13.47785086563118</v>
       </c>
       <c r="C3">
-        <v>8.453616366915703</v>
+        <v>4.636712411879812</v>
       </c>
       <c r="D3">
-        <v>6.233417584027736</v>
+        <v>6.162195377740804</v>
       </c>
       <c r="E3">
-        <v>5.693766288493069</v>
+        <v>5.652074654315485</v>
       </c>
       <c r="F3">
-        <v>65.94352365867051</v>
+        <v>68.37965923683984</v>
       </c>
       <c r="G3">
-        <v>2.194336210660769</v>
+        <v>2.230699620123811</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.105747700239895</v>
+        <v>7.653631821990932</v>
       </c>
       <c r="K3">
-        <v>14.17990597700797</v>
+        <v>10.609368308335</v>
       </c>
       <c r="L3">
-        <v>5.691447873283863</v>
+        <v>5.468179934353525</v>
       </c>
       <c r="M3">
-        <v>11.67895204896634</v>
+        <v>10.1388414249272</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.34113295211543</v>
+        <v>13.20813895936785</v>
       </c>
       <c r="C4">
-        <v>8.010410093603854</v>
+        <v>4.43198165502773</v>
       </c>
       <c r="D4">
-        <v>6.030737704123374</v>
+        <v>5.98856698411845</v>
       </c>
       <c r="E4">
-        <v>5.689610838892343</v>
+        <v>5.681833877086254</v>
       </c>
       <c r="F4">
-        <v>64.17174242794785</v>
+        <v>66.68360940178782</v>
       </c>
       <c r="G4">
-        <v>2.202475969129138</v>
+        <v>2.237336473135727</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.084734922246612</v>
+        <v>7.621278153458978</v>
       </c>
       <c r="K4">
-        <v>13.77609552000962</v>
+        <v>10.43127980168726</v>
       </c>
       <c r="L4">
-        <v>5.728155113396386</v>
+        <v>5.511958316783697</v>
       </c>
       <c r="M4">
-        <v>11.57822408540681</v>
+        <v>10.1300317824888</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.1298693424484</v>
+        <v>13.10047083573112</v>
       </c>
       <c r="C5">
-        <v>7.825008732097983</v>
+        <v>4.346538796487303</v>
       </c>
       <c r="D5">
-        <v>5.946891752723286</v>
+        <v>5.916580792456613</v>
       </c>
       <c r="E5">
-        <v>5.688060012724971</v>
+        <v>5.694299149527923</v>
       </c>
       <c r="F5">
-        <v>63.44464968060901</v>
+        <v>65.98578235030861</v>
       </c>
       <c r="G5">
-        <v>2.205835662375017</v>
+        <v>2.240081157406959</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.076324549389397</v>
+        <v>7.608248812198455</v>
       </c>
       <c r="K5">
-        <v>13.61282792340859</v>
+        <v>10.36097920756346</v>
       </c>
       <c r="L5">
-        <v>5.74395488463225</v>
+        <v>5.530514665069958</v>
       </c>
       <c r="M5">
-        <v>11.53987849844565</v>
+        <v>10.12854623994159</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.09486421276156</v>
+        <v>13.08273134143537</v>
       </c>
       <c r="C6">
-        <v>7.793929928936924</v>
+        <v>4.332228446171243</v>
       </c>
       <c r="D6">
-        <v>5.932894425735817</v>
+        <v>5.904553827979258</v>
       </c>
       <c r="E6">
-        <v>5.687810790094764</v>
+        <v>5.696389540199737</v>
       </c>
       <c r="F6">
-        <v>63.32362340973674</v>
+        <v>65.86952135759589</v>
       </c>
       <c r="G6">
-        <v>2.206396220185965</v>
+        <v>2.240539399229753</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.074936760439695</v>
+        <v>7.606094361507799</v>
       </c>
       <c r="K6">
-        <v>13.58580110993294</v>
+        <v>10.34944427556251</v>
       </c>
       <c r="L6">
-        <v>5.746628657677992</v>
+        <v>5.533638902845085</v>
       </c>
       <c r="M6">
-        <v>11.53367257274708</v>
+        <v>10.12842462705227</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.33827892268154</v>
+        <v>13.20667768291175</v>
       </c>
       <c r="C7">
-        <v>8.007929273060737</v>
+        <v>4.430837542379648</v>
       </c>
       <c r="D7">
-        <v>6.029611961694928</v>
+        <v>5.98760111012317</v>
       </c>
       <c r="E7">
-        <v>5.6895893612925</v>
+        <v>5.682000613577714</v>
       </c>
       <c r="F7">
-        <v>64.16195656144836</v>
+        <v>66.67422458444049</v>
       </c>
       <c r="G7">
-        <v>2.202521101507566</v>
+        <v>2.237373323467566</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.08462090067352</v>
+        <v>7.621101821221525</v>
       </c>
       <c r="K7">
-        <v>13.77388816012322</v>
+        <v>10.43032244907635</v>
       </c>
       <c r="L7">
-        <v>5.728364814717586</v>
+        <v>5.512205687281273</v>
       </c>
       <c r="M7">
-        <v>11.57769608713085</v>
+        <v>10.13000331944961</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.42155000468667</v>
+        <v>13.77300638732343</v>
       </c>
       <c r="C8">
-        <v>8.91055233685908</v>
+        <v>4.848406803546291</v>
       </c>
       <c r="D8">
-        <v>6.44535398502378</v>
+        <v>6.343214473086039</v>
       </c>
       <c r="E8">
-        <v>5.698720420847033</v>
+        <v>5.621463006203786</v>
       </c>
       <c r="F8">
-        <v>67.81569371314838</v>
+        <v>70.16531992813691</v>
       </c>
       <c r="G8">
-        <v>2.185785510183717</v>
+        <v>2.223747941666574</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.128738330966875</v>
+        <v>7.688716422360746</v>
       </c>
       <c r="K8">
-        <v>14.61470248290694</v>
+        <v>10.80705048147524</v>
       </c>
       <c r="L8">
-        <v>5.655212291891511</v>
+        <v>5.423942970438934</v>
       </c>
       <c r="M8">
-        <v>11.79584971297308</v>
+        <v>10.15563320458481</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.56597580014783</v>
+        <v>14.94642246394177</v>
       </c>
       <c r="C9">
-        <v>10.54028762221602</v>
+        <v>5.607170731417499</v>
       </c>
       <c r="D9">
-        <v>7.220357927924312</v>
+        <v>7.000898828318647</v>
       </c>
       <c r="E9">
-        <v>5.722100328481107</v>
+        <v>5.513091332187566</v>
       </c>
       <c r="F9">
-        <v>74.79806186208789</v>
+        <v>76.76982161207752</v>
       </c>
       <c r="G9">
-        <v>2.153999249785165</v>
+        <v>2.198101615354719</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.221433982673873</v>
+        <v>7.827079923465825</v>
       </c>
       <c r="K9">
-        <v>16.29290311847326</v>
+        <v>11.61435591790975</v>
       </c>
       <c r="L9">
-        <v>5.540048049463843</v>
+        <v>5.274371822031617</v>
       </c>
       <c r="M9">
-        <v>12.31370904605918</v>
+        <v>10.2776992085334</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.14823852342842</v>
+        <v>15.84217736209349</v>
       </c>
       <c r="C10">
-        <v>11.66263754308886</v>
+        <v>6.131631037285404</v>
       </c>
       <c r="D10">
-        <v>7.766237804718696</v>
+        <v>7.460192884629692</v>
       </c>
       <c r="E10">
-        <v>5.743602088563661</v>
+        <v>5.439486831062986</v>
       </c>
       <c r="F10">
-        <v>79.81411774720179</v>
+        <v>81.46129230490425</v>
       </c>
       <c r="G10">
-        <v>2.130968829406264</v>
+        <v>2.179732090005632</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.294631220326223</v>
+        <v>7.933090549439359</v>
       </c>
       <c r="K10">
-        <v>17.68094307666136</v>
+        <v>12.24741241837244</v>
       </c>
       <c r="L10">
-        <v>5.474395556694324</v>
+        <v>5.179737787089751</v>
       </c>
       <c r="M10">
-        <v>12.75334509255159</v>
+        <v>10.4156421619484</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.86980026774217</v>
+        <v>16.25644606151869</v>
       </c>
       <c r="C11">
-        <v>12.1596828456911</v>
+        <v>6.364028492780044</v>
       </c>
       <c r="D11">
-        <v>8.010032908442843</v>
+        <v>7.664193882958817</v>
       </c>
       <c r="E11">
-        <v>5.754593265369158</v>
+        <v>5.407240609520068</v>
       </c>
       <c r="F11">
-        <v>82.07415353215769</v>
+        <v>83.55998537220192</v>
       </c>
       <c r="G11">
-        <v>2.120481153757722</v>
+        <v>2.171432152267067</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.32938378315666</v>
+        <v>7.982476308424381</v>
       </c>
       <c r="K11">
-        <v>18.41447813816259</v>
+        <v>12.54392829926667</v>
       </c>
       <c r="L11">
-        <v>5.449099888162364</v>
+        <v>5.140249635736645</v>
       </c>
       <c r="M11">
-        <v>12.96730404941074</v>
+        <v>10.48989030786714</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.14342128935892</v>
+        <v>16.41428605819597</v>
       </c>
       <c r="C12">
-        <v>12.34622593318073</v>
+        <v>6.451236963032674</v>
       </c>
       <c r="D12">
-        <v>8.101771480473326</v>
+        <v>7.740766647635111</v>
       </c>
       <c r="E12">
-        <v>5.758956859802993</v>
+        <v>5.395201670083337</v>
       </c>
       <c r="F12">
-        <v>82.92731059082161</v>
+        <v>84.34969506155858</v>
       </c>
       <c r="G12">
-        <v>2.11650022269508</v>
+        <v>2.168292966331105</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.342786906987834</v>
+        <v>8.001364556809831</v>
       </c>
       <c r="K12">
-        <v>18.68978920647685</v>
+        <v>12.65744873812985</v>
       </c>
       <c r="L12">
-        <v>5.440223242452723</v>
+        <v>5.125833820502526</v>
       </c>
       <c r="M12">
-        <v>13.05044588543944</v>
+        <v>10.51974812817977</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08447220527642</v>
+        <v>16.38024926237764</v>
       </c>
       <c r="C13">
-        <v>12.30612045464166</v>
+        <v>6.432488805313047</v>
       </c>
       <c r="D13">
-        <v>8.082038457038101</v>
+        <v>7.724304876061533</v>
       </c>
       <c r="E13">
-        <v>5.758007629915171</v>
+        <v>5.397786918851668</v>
       </c>
       <c r="F13">
-        <v>82.74367704634707</v>
+        <v>84.17983761870981</v>
       </c>
       <c r="G13">
-        <v>2.117358147693679</v>
+        <v>2.168968950307659</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.339888898055386</v>
+        <v>7.997287974498518</v>
       </c>
       <c r="K13">
-        <v>18.63060025400058</v>
+        <v>12.63294471021687</v>
       </c>
       <c r="L13">
-        <v>5.442102962041137</v>
+        <v>5.128914173369692</v>
       </c>
       <c r="M13">
-        <v>13.03244346877483</v>
+        <v>10.51323878139763</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.89230255989058</v>
+        <v>16.26941224558344</v>
       </c>
       <c r="C14">
-        <v>12.17506180013122</v>
+        <v>6.371218545072406</v>
       </c>
       <c r="D14">
-        <v>8.017591472624876</v>
+        <v>7.670506941642738</v>
       </c>
       <c r="E14">
-        <v>5.75494804795462</v>
+        <v>5.406246746515372</v>
       </c>
       <c r="F14">
-        <v>82.14439337387509</v>
+        <v>83.62505497106356</v>
       </c>
       <c r="G14">
-        <v>2.12015387962944</v>
+        <v>2.171173839455451</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.330481381977851</v>
+        <v>7.984026385842713</v>
       </c>
       <c r="K14">
-        <v>18.437175607787</v>
+        <v>12.553242784987</v>
       </c>
       <c r="L14">
-        <v>5.448355244062848</v>
+        <v>5.139052706623541</v>
       </c>
       <c r="M14">
-        <v>12.9741009607501</v>
+        <v>10.49231129630286</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.77464797720242</v>
+        <v>16.20164735641393</v>
       </c>
       <c r="C15">
-        <v>12.09457476705422</v>
+        <v>6.333588153622813</v>
       </c>
       <c r="D15">
-        <v>7.978042552961508</v>
+        <v>7.637466967612827</v>
       </c>
       <c r="E15">
-        <v>5.753101103245461</v>
+        <v>5.411450854500718</v>
       </c>
       <c r="F15">
-        <v>81.77698450607861</v>
+        <v>83.28458533200836</v>
       </c>
       <c r="G15">
-        <v>2.121864857226395</v>
+        <v>2.172524758871767</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.324751756449698</v>
+        <v>7.975928261248057</v>
       </c>
       <c r="K15">
-        <v>18.31838643076827</v>
+        <v>12.50458470651028</v>
       </c>
       <c r="L15">
-        <v>5.452277857709865</v>
+        <v>5.145333667250963</v>
       </c>
       <c r="M15">
-        <v>12.93864432506225</v>
+        <v>10.47972214397633</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.10112731944565</v>
+        <v>15.81523884951345</v>
       </c>
       <c r="C16">
-        <v>11.6299043634314</v>
+        <v>6.116326628621542</v>
       </c>
       <c r="D16">
-        <v>7.750219602728273</v>
+        <v>7.446764120437162</v>
       </c>
       <c r="E16">
-        <v>5.74291037731924</v>
+        <v>5.441618595073673</v>
       </c>
       <c r="F16">
-        <v>79.66601560262507</v>
+        <v>81.323428142227</v>
       </c>
       <c r="G16">
-        <v>2.131653354200489</v>
+        <v>2.180275290585372</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.292392115798061</v>
+        <v>7.929888087000492</v>
       </c>
       <c r="K16">
-        <v>17.63264292090968</v>
+        <v>12.22820642693882</v>
       </c>
       <c r="L16">
-        <v>5.476144355682507</v>
+        <v>5.18239217674575</v>
       </c>
       <c r="M16">
-        <v>12.73965246243049</v>
+        <v>10.41102865269612</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.68846229352113</v>
+        <v>15.57991022747405</v>
       </c>
       <c r="C17">
-        <v>11.34155969438985</v>
+        <v>5.98152298289128</v>
       </c>
       <c r="D17">
-        <v>7.60934108925579</v>
+        <v>7.328529652196555</v>
       </c>
       <c r="E17">
-        <v>5.736986677513283</v>
+        <v>5.460438275963185</v>
       </c>
       <c r="F17">
-        <v>78.36568950313529</v>
+        <v>80.11125549725341</v>
       </c>
       <c r="G17">
-        <v>2.137650206371443</v>
+        <v>2.185041548583933</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.272935702319459</v>
+        <v>7.901954728668387</v>
       </c>
       <c r="K17">
-        <v>17.20724368090627</v>
+        <v>12.06084300443494</v>
       </c>
       <c r="L17">
-        <v>5.491986240166922</v>
+        <v>5.206055396118864</v>
       </c>
       <c r="M17">
-        <v>12.62122726670764</v>
+        <v>10.37189332201642</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.4512634427993</v>
+        <v>15.44519283826006</v>
       </c>
       <c r="C18">
-        <v>11.17442108334555</v>
+        <v>5.9033992761918</v>
       </c>
       <c r="D18">
-        <v>7.527879893465299</v>
+        <v>7.260057397177808</v>
       </c>
       <c r="E18">
-        <v>5.733691502835598</v>
+        <v>5.471379649025929</v>
       </c>
       <c r="F18">
-        <v>77.61568535258242</v>
+        <v>79.41069410791704</v>
       </c>
       <c r="G18">
-        <v>2.141098936181916</v>
+        <v>2.187788573017693</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.261879519005365</v>
+        <v>7.885996142515273</v>
       </c>
       <c r="K18">
-        <v>16.98977418446919</v>
+        <v>11.96538162875193</v>
       </c>
       <c r="L18">
-        <v>5.501525159752656</v>
+        <v>5.219999333113749</v>
       </c>
       <c r="M18">
-        <v>12.55441896379421</v>
+        <v>10.35046031843356</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.3709762463854</v>
+        <v>15.3996901577559</v>
       </c>
       <c r="C19">
-        <v>11.11760169829797</v>
+        <v>5.876844256957522</v>
       </c>
       <c r="D19">
-        <v>7.500222606620367</v>
+        <v>7.236792875716952</v>
       </c>
       <c r="E19">
-        <v>5.732594284877488</v>
+        <v>5.475104440378555</v>
       </c>
       <c r="F19">
-        <v>77.36137686026186</v>
+        <v>79.17291981851291</v>
       </c>
       <c r="G19">
-        <v>2.142266752313158</v>
+        <v>2.188719752694748</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.25815825565468</v>
+        <v>7.880610810345448</v>
       </c>
       <c r="K19">
-        <v>16.92649134326425</v>
+        <v>11.93319780899324</v>
       </c>
       <c r="L19">
-        <v>5.50482695699136</v>
+        <v>5.224777073901824</v>
       </c>
       <c r="M19">
-        <v>12.53202020255387</v>
+        <v>10.34338577475411</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.73237450518906</v>
+        <v>15.60489556918688</v>
       </c>
       <c r="C20">
-        <v>11.37238621940927</v>
+        <v>5.995933301359194</v>
       </c>
       <c r="D20">
-        <v>7.624382075643957</v>
+        <v>7.341164040410645</v>
       </c>
       <c r="E20">
-        <v>5.737605491956286</v>
+        <v>5.458422842508288</v>
       </c>
       <c r="F20">
-        <v>78.50432512929025</v>
+        <v>80.24064001880429</v>
       </c>
       <c r="G20">
-        <v>2.137011936466697</v>
+        <v>2.184533622334745</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.274992707342704</v>
+        <v>7.904916973960933</v>
       </c>
       <c r="K20">
-        <v>17.25271503009017</v>
+        <v>12.0785761650309</v>
       </c>
       <c r="L20">
-        <v>5.490255336700036</v>
+        <v>5.203501720484073</v>
       </c>
       <c r="M20">
-        <v>12.63369784997351</v>
+        <v>10.37594729794292</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.94873565747703</v>
+        <v>16.30194148046435</v>
       </c>
       <c r="C21">
-        <v>12.21360009687828</v>
+        <v>6.389235882664492</v>
       </c>
       <c r="D21">
-        <v>8.036536231447593</v>
+        <v>7.686326797921381</v>
       </c>
       <c r="E21">
-        <v>5.755841009693996</v>
+        <v>5.40375727063327</v>
       </c>
       <c r="F21">
-        <v>82.32048522664569</v>
+        <v>83.78814306947984</v>
       </c>
       <c r="G21">
-        <v>2.11933303152612</v>
+        <v>2.170526143218212</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.333237704572901</v>
+        <v>7.987916390410977</v>
       </c>
       <c r="K21">
-        <v>18.49405331628184</v>
+        <v>12.57661943596066</v>
       </c>
       <c r="L21">
-        <v>5.446499344632792</v>
+        <v>5.136059964751051</v>
       </c>
       <c r="M21">
-        <v>12.99117901819918</v>
+        <v>10.49841020458031</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.74604388672896</v>
+        <v>16.76314820714112</v>
       </c>
       <c r="C22">
-        <v>12.7537605375024</v>
+        <v>6.641698693800324</v>
       </c>
       <c r="D22">
-        <v>8.302562152191005</v>
+        <v>7.907980768354461</v>
       </c>
       <c r="E22">
-        <v>5.76894986245973</v>
+        <v>5.369029705146279</v>
       </c>
       <c r="F22">
-        <v>84.79937665142275</v>
+        <v>86.07750679612892</v>
       </c>
       <c r="G22">
-        <v>2.107719020820224</v>
+        <v>2.161391328686288</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.372740702179009</v>
+        <v>8.043262127003803</v>
       </c>
       <c r="K22">
-        <v>19.29116674312216</v>
+        <v>12.90934679666416</v>
       </c>
       <c r="L22">
-        <v>5.422021702058559</v>
+        <v>5.095130470625207</v>
       </c>
       <c r="M22">
-        <v>13.23724227514252</v>
+        <v>10.58864407005239</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.32022585557969</v>
+        <v>16.51647140902862</v>
       </c>
       <c r="C23">
-        <v>12.46624807402166</v>
+        <v>6.507339521787547</v>
       </c>
       <c r="D23">
-        <v>8.16085614317547</v>
+        <v>7.790026373136856</v>
       </c>
       <c r="E23">
-        <v>5.761834024833331</v>
+        <v>5.387475048135522</v>
       </c>
       <c r="F23">
-        <v>83.47752653011844</v>
+        <v>84.85823748663249</v>
       </c>
       <c r="G23">
-        <v>2.113926049516686</v>
+        <v>2.166266491692696</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.351513169730461</v>
+        <v>8.013615038229025</v>
       </c>
       <c r="K23">
-        <v>18.86691598094448</v>
+        <v>12.73109361904734</v>
       </c>
       <c r="L23">
-        <v>5.434692224552863</v>
+        <v>5.116677880029307</v>
       </c>
       <c r="M23">
-        <v>13.10473297926479</v>
+        <v>10.53952070094509</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.71252165375887</v>
+        <v>15.59359790032569</v>
       </c>
       <c r="C24">
-        <v>11.35845381998701</v>
+        <v>5.989420344708458</v>
       </c>
       <c r="D24">
-        <v>7.617583509208965</v>
+        <v>7.335453585926811</v>
       </c>
       <c r="E24">
-        <v>5.737325383951815</v>
+        <v>5.459333640504956</v>
       </c>
       <c r="F24">
-        <v>78.44165556193741</v>
+        <v>80.18215670376077</v>
       </c>
       <c r="G24">
-        <v>2.137300494411484</v>
+        <v>2.184763234171473</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.274062334283082</v>
+        <v>7.903577430763711</v>
       </c>
       <c r="K24">
-        <v>17.23216348111782</v>
+        <v>12.07055664221673</v>
       </c>
       <c r="L24">
-        <v>5.491036538369851</v>
+        <v>5.204655181215494</v>
       </c>
       <c r="M24">
-        <v>12.62805593320708</v>
+        <v>10.3741111803778</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.98451211890129</v>
+        <v>14.62280571002477</v>
       </c>
       <c r="C25">
-        <v>10.1134126435291</v>
+        <v>5.407995973887138</v>
       </c>
       <c r="D25">
-        <v>7.014962096552142</v>
+        <v>6.827228950868097</v>
       </c>
       <c r="E25">
-        <v>5.715096504079522</v>
+        <v>5.541330371823932</v>
       </c>
       <c r="F25">
-        <v>72.92952936942049</v>
+        <v>75.01078508519892</v>
       </c>
       <c r="G25">
-        <v>2.162517070374872</v>
+        <v>2.204942368086912</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.195568483744136</v>
+        <v>7.788949896156756</v>
       </c>
       <c r="K25">
-        <v>15.83636814051343</v>
+        <v>11.38884532094227</v>
       </c>
       <c r="L25">
-        <v>5.568011522011912</v>
+        <v>5.312230938933226</v>
       </c>
       <c r="M25">
-        <v>12.16355643980259</v>
+        <v>10.23653369281168</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.93091773841535</v>
+        <v>12.41754273597077</v>
       </c>
       <c r="C2">
-        <v>4.957365063298648</v>
+        <v>6.461036491302719</v>
       </c>
       <c r="D2">
-        <v>6.436892235699193</v>
+        <v>3.661303774552046</v>
       </c>
       <c r="E2">
-        <v>5.605770439749502</v>
+        <v>7.075450136768274</v>
       </c>
       <c r="F2">
-        <v>71.09562575308756</v>
+        <v>31.16979482879349</v>
       </c>
       <c r="G2">
-        <v>2.220134870282272</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>40.67831295781501</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5.060713128786594</v>
       </c>
       <c r="J2">
-        <v>7.707399025964809</v>
+        <v>13.62057722593071</v>
       </c>
       <c r="K2">
-        <v>10.91384921965045</v>
+        <v>22.41347683009123</v>
       </c>
       <c r="L2">
-        <v>5.401589890143577</v>
+        <v>6.230041959370678</v>
       </c>
       <c r="M2">
-        <v>10.16727413527376</v>
+        <v>10.42156828855027</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.641670545920442</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.815941463891798</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.47785086563118</v>
+        <v>11.66888167003618</v>
       </c>
       <c r="C3">
-        <v>4.636712411879812</v>
+        <v>6.10927662941708</v>
       </c>
       <c r="D3">
-        <v>6.162195377740804</v>
+        <v>3.569250083417366</v>
       </c>
       <c r="E3">
-        <v>5.652074654315485</v>
+        <v>7.074562466423617</v>
       </c>
       <c r="F3">
-        <v>68.37965923683984</v>
+        <v>30.88164552989544</v>
       </c>
       <c r="G3">
-        <v>2.230699620123811</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>40.19589292787028</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.279022550038719</v>
       </c>
       <c r="J3">
-        <v>7.653631821990932</v>
+        <v>13.61094838457187</v>
       </c>
       <c r="K3">
-        <v>10.609368308335</v>
+        <v>22.37807307494235</v>
       </c>
       <c r="L3">
-        <v>5.468179934353525</v>
+        <v>6.255267776641267</v>
       </c>
       <c r="M3">
-        <v>10.1388414249272</v>
+        <v>9.770006626073615</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.603990410174498</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.548339592085901</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.20813895936785</v>
+        <v>11.18572201281845</v>
       </c>
       <c r="C4">
-        <v>4.43198165502773</v>
+        <v>5.885812743207723</v>
       </c>
       <c r="D4">
-        <v>5.98856698411845</v>
+        <v>3.513715369083861</v>
       </c>
       <c r="E4">
-        <v>5.681833877086254</v>
+        <v>7.075456398787543</v>
       </c>
       <c r="F4">
-        <v>66.68360940178782</v>
+        <v>30.71291746461064</v>
       </c>
       <c r="G4">
-        <v>2.237336473135727</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>39.90910332614278</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5.418304163756693</v>
       </c>
       <c r="J4">
-        <v>7.621278153458978</v>
+        <v>13.60837915293144</v>
       </c>
       <c r="K4">
-        <v>10.43127980168726</v>
+        <v>22.36043624776456</v>
       </c>
       <c r="L4">
-        <v>5.511958316783697</v>
+        <v>6.271125211760357</v>
       </c>
       <c r="M4">
-        <v>10.1300317824888</v>
+        <v>9.347982183442431</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.584278747520196</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.383647051838077</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.10047083573112</v>
+        <v>10.98131636024779</v>
       </c>
       <c r="C5">
-        <v>4.346538796487303</v>
+        <v>5.798759706456894</v>
       </c>
       <c r="D5">
-        <v>5.916580792456613</v>
+        <v>3.493517989060229</v>
       </c>
       <c r="E5">
-        <v>5.694299149527923</v>
+        <v>7.075783860401512</v>
       </c>
       <c r="F5">
-        <v>65.98578235030861</v>
+        <v>30.6332522394243</v>
       </c>
       <c r="G5">
-        <v>2.240081157406959</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>39.77195340260361</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5.478669314964423</v>
       </c>
       <c r="J5">
-        <v>7.608248812198455</v>
+        <v>13.60387277192371</v>
       </c>
       <c r="K5">
-        <v>10.36097920756346</v>
+        <v>22.3446607346843</v>
       </c>
       <c r="L5">
-        <v>5.530514665069958</v>
+        <v>6.277231628223166</v>
       </c>
       <c r="M5">
-        <v>10.12854623994159</v>
+        <v>9.171792980484556</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.57842347800679</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.317175108299141</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.08273134143537</v>
+        <v>10.94492599255168</v>
       </c>
       <c r="C6">
-        <v>4.332228446171243</v>
+        <v>5.791395772284282</v>
       </c>
       <c r="D6">
-        <v>5.904553827979258</v>
+        <v>3.492819306990549</v>
       </c>
       <c r="E6">
-        <v>5.696389540199737</v>
+        <v>7.075375161469181</v>
       </c>
       <c r="F6">
-        <v>65.86952135759589</v>
+        <v>30.60429220970519</v>
       </c>
       <c r="G6">
-        <v>2.240539399229753</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>39.721606504993</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.491648281767309</v>
       </c>
       <c r="J6">
-        <v>7.606094361507799</v>
+        <v>13.59793974947408</v>
       </c>
       <c r="K6">
-        <v>10.34944427556251</v>
+        <v>22.33037337494881</v>
       </c>
       <c r="L6">
-        <v>5.533638902845085</v>
+        <v>6.277701265035467</v>
       </c>
       <c r="M6">
-        <v>10.12842462705227</v>
+        <v>9.143804298284731</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.579124250093738</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.306929907645882</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.20667768291175</v>
+        <v>11.17734655294387</v>
       </c>
       <c r="C7">
-        <v>4.430837542379648</v>
+        <v>5.90395157220787</v>
       </c>
       <c r="D7">
-        <v>5.98760111012317</v>
+        <v>3.520568597617241</v>
       </c>
       <c r="E7">
-        <v>5.682000613577714</v>
+        <v>7.074138658691494</v>
       </c>
       <c r="F7">
-        <v>66.67422458444049</v>
+        <v>30.66871057532594</v>
       </c>
       <c r="G7">
-        <v>2.237373323467566</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>39.83189511873555</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5.426737288402907</v>
       </c>
       <c r="J7">
-        <v>7.621101821221525</v>
+        <v>13.59405800961148</v>
       </c>
       <c r="K7">
-        <v>10.43032244907635</v>
+        <v>22.32826044227434</v>
       </c>
       <c r="L7">
-        <v>5.512205687281273</v>
+        <v>6.269718959432584</v>
       </c>
       <c r="M7">
-        <v>10.13000331944961</v>
+        <v>9.349903126737487</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.588606571712334</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.384867739645976</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77300638732343</v>
+        <v>12.1573015602463</v>
       </c>
       <c r="C8">
-        <v>4.848406803546291</v>
+        <v>6.365309999586569</v>
       </c>
       <c r="D8">
-        <v>6.343214473086039</v>
+        <v>3.638467989787412</v>
       </c>
       <c r="E8">
-        <v>5.621463006203786</v>
+        <v>7.073108604012165</v>
       </c>
       <c r="F8">
-        <v>70.16531992813691</v>
+        <v>31.01259353176988</v>
       </c>
       <c r="G8">
-        <v>2.223747941666574</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>40.41215159435829</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5.144554098619875</v>
       </c>
       <c r="J8">
-        <v>7.688716422360746</v>
+        <v>13.59787195466975</v>
       </c>
       <c r="K8">
-        <v>10.80705048147524</v>
+        <v>22.35850987677589</v>
       </c>
       <c r="L8">
-        <v>5.423942970438934</v>
+        <v>6.236757220585052</v>
       </c>
       <c r="M8">
-        <v>10.15563320458481</v>
+        <v>10.20671731606954</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.633716938681851</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.726428857986861</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.94642246394177</v>
+        <v>13.89854900153269</v>
       </c>
       <c r="C9">
-        <v>5.607170731417499</v>
+        <v>7.178841477407897</v>
       </c>
       <c r="D9">
-        <v>7.000898828318647</v>
+        <v>3.86404155948377</v>
       </c>
       <c r="E9">
-        <v>5.513091332187566</v>
+        <v>7.084964924399722</v>
       </c>
       <c r="F9">
-        <v>76.76982161207752</v>
+        <v>31.82752471552686</v>
       </c>
       <c r="G9">
-        <v>2.198101615354719</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>41.75539728496909</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.619325356982337</v>
       </c>
       <c r="J9">
-        <v>7.827079923465825</v>
+        <v>13.65792866770234</v>
       </c>
       <c r="K9">
-        <v>11.61435591790975</v>
+        <v>22.50793461321183</v>
       </c>
       <c r="L9">
-        <v>5.274371822031617</v>
+        <v>6.177485104276109</v>
       </c>
       <c r="M9">
-        <v>10.2776992085334</v>
+        <v>11.70603928821111</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.741905114194226</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.38595627776195</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.84217736209349</v>
+        <v>15.05679509284428</v>
       </c>
       <c r="C10">
-        <v>6.131631037285404</v>
+        <v>7.748357645165749</v>
       </c>
       <c r="D10">
-        <v>7.460192884629692</v>
+        <v>4.035207447726297</v>
       </c>
       <c r="E10">
-        <v>5.439486831062986</v>
+        <v>7.100232509247477</v>
       </c>
       <c r="F10">
-        <v>81.46129230490425</v>
+        <v>32.44554922487979</v>
       </c>
       <c r="G10">
-        <v>2.179732090005632</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>42.75076004631212</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.261129545317329</v>
       </c>
       <c r="J10">
-        <v>7.933090549439359</v>
+        <v>13.71314516581666</v>
       </c>
       <c r="K10">
-        <v>12.24741241837244</v>
+        <v>22.62439301625427</v>
       </c>
       <c r="L10">
-        <v>5.179737787089751</v>
+        <v>6.13482952647458</v>
       </c>
       <c r="M10">
-        <v>10.4156421619484</v>
+        <v>12.70403308919489</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.840576650419439</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.86258225431455</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.25644606151869</v>
+        <v>15.57529142369988</v>
       </c>
       <c r="C11">
-        <v>6.364028492780044</v>
+        <v>8.023730466651461</v>
       </c>
       <c r="D11">
-        <v>7.664193882958817</v>
+        <v>4.123009559913216</v>
       </c>
       <c r="E11">
-        <v>5.407240609520068</v>
+        <v>7.106675977952907</v>
       </c>
       <c r="F11">
-        <v>83.55998537220192</v>
+        <v>32.67069026719762</v>
       </c>
       <c r="G11">
-        <v>2.171432152267067</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>43.10151607348269</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.116221988602555</v>
       </c>
       <c r="J11">
-        <v>7.982476308424381</v>
+        <v>13.72021905872249</v>
       </c>
       <c r="K11">
-        <v>12.54392829926667</v>
+        <v>22.63271190939949</v>
       </c>
       <c r="L11">
-        <v>5.140249635736645</v>
+        <v>6.11357422491373</v>
       </c>
       <c r="M11">
-        <v>10.48989030786714</v>
+        <v>13.14052177095398</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.895943941314419</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.07920275222399</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.41428605819597</v>
+        <v>15.77416681286509</v>
       </c>
       <c r="C12">
-        <v>6.451236963032674</v>
+        <v>8.113643666740652</v>
       </c>
       <c r="D12">
-        <v>7.740766647635111</v>
+        <v>4.150929945511747</v>
       </c>
       <c r="E12">
-        <v>5.395201670083337</v>
+        <v>7.110470132666095</v>
       </c>
       <c r="F12">
-        <v>84.34969506155858</v>
+        <v>32.79198160519749</v>
       </c>
       <c r="G12">
-        <v>2.168292966331105</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>43.2957574678644</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.055302845934966</v>
       </c>
       <c r="J12">
-        <v>8.001364556809831</v>
+        <v>13.73541867407448</v>
       </c>
       <c r="K12">
-        <v>12.65744873812985</v>
+        <v>22.66329725472413</v>
       </c>
       <c r="L12">
-        <v>5.125833820502526</v>
+        <v>6.106727854825885</v>
       </c>
       <c r="M12">
-        <v>10.51974812817977</v>
+        <v>13.29978055184271</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.913845051951258</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.15935709127971</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38024926237764</v>
+        <v>15.73236200924026</v>
       </c>
       <c r="C13">
-        <v>6.432488805313047</v>
+        <v>8.091727652866588</v>
       </c>
       <c r="D13">
-        <v>7.724304876061533</v>
+        <v>4.143865411854884</v>
       </c>
       <c r="E13">
-        <v>5.397786918851668</v>
+        <v>7.109867636919377</v>
       </c>
       <c r="F13">
-        <v>84.17983761870981</v>
+        <v>32.77273153537551</v>
       </c>
       <c r="G13">
-        <v>2.168968950307659</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>43.26580748188978</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.066958562683079</v>
       </c>
       <c r="J13">
-        <v>7.997287974498518</v>
+        <v>13.73449691001727</v>
       </c>
       <c r="K13">
-        <v>12.63294471021687</v>
+        <v>22.66200803599136</v>
       </c>
       <c r="L13">
-        <v>5.128914173369692</v>
+        <v>6.108431856742011</v>
       </c>
       <c r="M13">
-        <v>10.51323878139763</v>
+        <v>13.26507580697095</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.909245284846049</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.1418396548912</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.26941224558344</v>
+        <v>15.59209687614537</v>
       </c>
       <c r="C14">
-        <v>6.371218545072406</v>
+        <v>8.030036745339594</v>
       </c>
       <c r="D14">
-        <v>7.670506941642738</v>
+        <v>4.12485759565286</v>
       </c>
       <c r="E14">
-        <v>5.406246746515372</v>
+        <v>7.107079114006567</v>
       </c>
       <c r="F14">
-        <v>83.62505497106356</v>
+        <v>32.68359525851552</v>
       </c>
       <c r="G14">
-        <v>2.171173839455451</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>43.1225598182553</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.110584811291671</v>
       </c>
       <c r="J14">
-        <v>7.984026385842713</v>
+        <v>13.72246922780432</v>
       </c>
       <c r="K14">
-        <v>12.553242784987</v>
+        <v>22.63748086790123</v>
       </c>
       <c r="L14">
-        <v>5.139052706623541</v>
+        <v>6.113108618185251</v>
       </c>
       <c r="M14">
-        <v>10.49231129630286</v>
+        <v>13.15345359783278</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.897099036986198</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.0856883760846</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.20164735641393</v>
+        <v>15.50394554583788</v>
       </c>
       <c r="C15">
-        <v>6.333588153622813</v>
+        <v>7.997304340291212</v>
       </c>
       <c r="D15">
-        <v>7.637466967612827</v>
+        <v>4.115306604615636</v>
       </c>
       <c r="E15">
-        <v>5.411450854500718</v>
+        <v>7.104957686873766</v>
       </c>
       <c r="F15">
-        <v>83.28458533200836</v>
+        <v>32.6154420350767</v>
       </c>
       <c r="G15">
-        <v>2.172524758871767</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>43.01132143952646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.140268623258896</v>
       </c>
       <c r="J15">
-        <v>7.975928261248057</v>
+        <v>13.71048614094756</v>
       </c>
       <c r="K15">
-        <v>12.50458470651028</v>
+        <v>22.61203315945288</v>
       </c>
       <c r="L15">
-        <v>5.145333667250963</v>
+        <v>6.11552142568648</v>
       </c>
       <c r="M15">
-        <v>10.47972214397633</v>
+        <v>13.08576093796673</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.891155409935738</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.05178506277226</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.81523884951345</v>
+        <v>15.01081909640185</v>
       </c>
       <c r="C16">
-        <v>6.116326628621542</v>
+        <v>7.77483909041529</v>
       </c>
       <c r="D16">
-        <v>7.446764120437162</v>
+        <v>4.047350988719608</v>
       </c>
       <c r="E16">
-        <v>5.441618595073673</v>
+        <v>7.096097229128927</v>
       </c>
       <c r="F16">
-        <v>81.323428142227</v>
+        <v>32.31449681995307</v>
       </c>
       <c r="G16">
-        <v>2.180275290585372</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>42.5267192391601</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.293680622662639</v>
       </c>
       <c r="J16">
-        <v>7.929888087000492</v>
+        <v>13.67300419758654</v>
       </c>
       <c r="K16">
-        <v>12.22820642693882</v>
+        <v>22.53483362827164</v>
       </c>
       <c r="L16">
-        <v>5.18239217674575</v>
+        <v>6.13233885911071</v>
       </c>
       <c r="M16">
-        <v>10.41102865269612</v>
+        <v>12.68451740570485</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.849116655201572</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.85313178148516</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.57991022747405</v>
+        <v>14.71418983561048</v>
       </c>
       <c r="C17">
-        <v>5.98152298289128</v>
+        <v>7.636421965164058</v>
       </c>
       <c r="D17">
-        <v>7.328529652196555</v>
+        <v>4.005669241893191</v>
       </c>
       <c r="E17">
-        <v>5.460438275963185</v>
+        <v>7.091088075804622</v>
       </c>
       <c r="F17">
-        <v>80.11125549725341</v>
+        <v>32.13239147931929</v>
       </c>
       <c r="G17">
-        <v>2.185041548583933</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>42.23227960329078</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.389083056721466</v>
       </c>
       <c r="J17">
-        <v>7.901954728668387</v>
+        <v>13.65124152320034</v>
       </c>
       <c r="K17">
-        <v>12.06084300443494</v>
+        <v>22.48913972385808</v>
       </c>
       <c r="L17">
-        <v>5.206055396118864</v>
+        <v>6.142742661152532</v>
       </c>
       <c r="M17">
-        <v>10.37189332201642</v>
+        <v>12.43261794023758</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.824258960630915</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.73051787508607</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.44519283826006</v>
+        <v>14.54521800589395</v>
       </c>
       <c r="C18">
-        <v>5.9033992761918</v>
+        <v>7.542158533137838</v>
       </c>
       <c r="D18">
-        <v>7.260057397177808</v>
+        <v>3.976182657779396</v>
       </c>
       <c r="E18">
-        <v>5.471379649025929</v>
+        <v>7.089500358716112</v>
       </c>
       <c r="F18">
-        <v>79.41069410791704</v>
+        <v>32.06418664644784</v>
       </c>
       <c r="G18">
-        <v>2.187788573017693</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>42.12560864657772</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.43694485256986</v>
       </c>
       <c r="J18">
-        <v>7.885996142515273</v>
+        <v>13.65125332401872</v>
       </c>
       <c r="K18">
-        <v>11.96538162875193</v>
+        <v>22.49052890872626</v>
       </c>
       <c r="L18">
-        <v>5.219999333113749</v>
+        <v>6.149942927989171</v>
       </c>
       <c r="M18">
-        <v>10.35046031843356</v>
+        <v>12.28265149564004</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.806608779201714</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.65825279637391</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.3996901577559</v>
+        <v>14.48443556497927</v>
       </c>
       <c r="C19">
-        <v>5.876844256957522</v>
+        <v>7.520838010849483</v>
       </c>
       <c r="D19">
-        <v>7.236792875716952</v>
+        <v>3.9704544669783</v>
       </c>
       <c r="E19">
-        <v>5.475104440378555</v>
+        <v>7.08811205610675</v>
       </c>
       <c r="F19">
-        <v>79.17291981851291</v>
+        <v>32.01380606246832</v>
       </c>
       <c r="G19">
-        <v>2.188719752694748</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>42.04218218393049</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.458960572185458</v>
       </c>
       <c r="J19">
-        <v>7.880610810345448</v>
+        <v>13.64201374903138</v>
       </c>
       <c r="K19">
-        <v>11.93319780899324</v>
+        <v>22.47022533854668</v>
       </c>
       <c r="L19">
-        <v>5.224777073901824</v>
+        <v>6.151473843771026</v>
       </c>
       <c r="M19">
-        <v>10.34338577475411</v>
+        <v>12.23378758128918</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.803538330225638</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.63488776172413</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.60489556918688</v>
+        <v>14.74633844875916</v>
       </c>
       <c r="C20">
-        <v>5.995933301359194</v>
+        <v>7.650148956956736</v>
       </c>
       <c r="D20">
-        <v>7.341164040410645</v>
+        <v>4.009675226698842</v>
       </c>
       <c r="E20">
-        <v>5.458422842508288</v>
+        <v>7.09169438011015</v>
       </c>
       <c r="F20">
-        <v>80.24064001880429</v>
+        <v>32.15446445346539</v>
       </c>
       <c r="G20">
-        <v>2.184533622334745</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>42.26832761415239</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.378282909505931</v>
       </c>
       <c r="J20">
-        <v>7.904916973960933</v>
+        <v>13.65445848592138</v>
       </c>
       <c r="K20">
-        <v>12.0785761650309</v>
+        <v>22.49606132125129</v>
       </c>
       <c r="L20">
-        <v>5.203501720484073</v>
+        <v>6.141724283536446</v>
       </c>
       <c r="M20">
-        <v>10.37594729794292</v>
+        <v>12.45942294712819</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.826580736112119</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.74348183596478</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.30194148046435</v>
+        <v>15.62874649398539</v>
       </c>
       <c r="C21">
-        <v>6.389235882664492</v>
+        <v>8.062834542794402</v>
       </c>
       <c r="D21">
-        <v>7.686326797921381</v>
+        <v>4.136356146557119</v>
       </c>
       <c r="E21">
-        <v>5.40375727063327</v>
+        <v>7.106628976923234</v>
       </c>
       <c r="F21">
-        <v>83.78814306947984</v>
+        <v>32.6708446428464</v>
       </c>
       <c r="G21">
-        <v>2.170526143218212</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>43.09752699288014</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.105980649289235</v>
       </c>
       <c r="J21">
-        <v>7.987916390410977</v>
+        <v>13.71263182055344</v>
       </c>
       <c r="K21">
-        <v>12.57661943596066</v>
+        <v>22.61474859062857</v>
       </c>
       <c r="L21">
-        <v>5.136059964751051</v>
+        <v>6.110436715210909</v>
       </c>
       <c r="M21">
-        <v>10.49841020458031</v>
+        <v>13.18941529614663</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.904697666291816</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.10374829915737</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.76314820714112</v>
+        <v>16.20412859182874</v>
       </c>
       <c r="C22">
-        <v>6.641698693800324</v>
+        <v>8.307669364400404</v>
       </c>
       <c r="D22">
-        <v>7.907980768354461</v>
+        <v>4.211576443109006</v>
       </c>
       <c r="E22">
-        <v>5.369029705146279</v>
+        <v>7.119401902046811</v>
       </c>
       <c r="F22">
-        <v>86.07750679612892</v>
+        <v>33.06586959425048</v>
       </c>
       <c r="G22">
-        <v>2.161391328686288</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>43.73371949524868</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.921602032063835</v>
       </c>
       <c r="J22">
-        <v>8.043262127003803</v>
+        <v>13.77173044389256</v>
       </c>
       <c r="K22">
-        <v>12.90934679666416</v>
+        <v>22.73586682888046</v>
       </c>
       <c r="L22">
-        <v>5.095130470625207</v>
+        <v>6.091909055864601</v>
       </c>
       <c r="M22">
-        <v>10.58864407005239</v>
+        <v>13.64387963845802</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.953675901303646</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.33455507539934</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.51647140902862</v>
+        <v>15.9049689102901</v>
       </c>
       <c r="C23">
-        <v>6.507339521787547</v>
+        <v>8.160083741571448</v>
       </c>
       <c r="D23">
-        <v>7.790026373136856</v>
+        <v>4.164360201419806</v>
       </c>
       <c r="E23">
-        <v>5.387475048135522</v>
+        <v>7.11397536342671</v>
       </c>
       <c r="F23">
-        <v>84.85823748663249</v>
+        <v>32.90102241737966</v>
       </c>
       <c r="G23">
-        <v>2.166266491692696</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>43.47387577967299</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.009967087646711</v>
       </c>
       <c r="J23">
-        <v>8.013615038229025</v>
+        <v>13.75587510083742</v>
       </c>
       <c r="K23">
-        <v>12.73109361904734</v>
+        <v>22.70671681849613</v>
       </c>
       <c r="L23">
-        <v>5.116677880029307</v>
+        <v>6.103334413475412</v>
       </c>
       <c r="M23">
-        <v>10.53952070094509</v>
+        <v>13.39934250132755</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.922394501215489</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.20977790811314</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.59359790032569</v>
+        <v>14.740391823017</v>
       </c>
       <c r="C24">
-        <v>5.989420344708458</v>
+        <v>7.614812456211151</v>
       </c>
       <c r="D24">
-        <v>7.335453585926811</v>
+        <v>3.996265433259508</v>
       </c>
       <c r="E24">
-        <v>5.459333640504956</v>
+        <v>7.093825039841577</v>
       </c>
       <c r="F24">
-        <v>80.18215670376077</v>
+        <v>32.21959093917472</v>
       </c>
       <c r="G24">
-        <v>2.184763234171473</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>42.38192707584474</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.367890908013445</v>
       </c>
       <c r="J24">
-        <v>7.903577430763711</v>
+        <v>13.67854875110173</v>
       </c>
       <c r="K24">
-        <v>12.07055664221673</v>
+        <v>22.55016997023377</v>
       </c>
       <c r="L24">
-        <v>5.204655181215494</v>
+        <v>6.144684886703926</v>
       </c>
       <c r="M24">
-        <v>10.3741111803778</v>
+        <v>12.44112556960292</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.817741544073559</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.7345097928043</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.62280571002477</v>
+        <v>13.43931080089694</v>
       </c>
       <c r="C25">
-        <v>5.407995973887138</v>
+        <v>6.995375865743266</v>
       </c>
       <c r="D25">
-        <v>6.827228950868097</v>
+        <v>3.814296609602287</v>
       </c>
       <c r="E25">
-        <v>5.541330371823932</v>
+        <v>7.078153678336448</v>
       </c>
       <c r="F25">
-        <v>75.01078508519892</v>
+        <v>31.52531649152795</v>
       </c>
       <c r="G25">
-        <v>2.204942368086912</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>41.25439247536828</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.770721808653736</v>
       </c>
       <c r="J25">
-        <v>7.788949896156756</v>
+        <v>13.613468105956</v>
       </c>
       <c r="K25">
-        <v>11.38884532094227</v>
+        <v>22.40735569089745</v>
       </c>
       <c r="L25">
-        <v>5.312230938933226</v>
+        <v>6.19072913656699</v>
       </c>
       <c r="M25">
-        <v>10.23653369281168</v>
+        <v>11.32550106375679</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.717364814571157</v>
       </c>
       <c r="O25">
+        <v>10.21203916080847</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.41754273597077</v>
+        <v>12.16706635658472</v>
       </c>
       <c r="C2">
-        <v>6.461036491302719</v>
+        <v>6.665610186620369</v>
       </c>
       <c r="D2">
-        <v>3.661303774552046</v>
+        <v>3.958032258836406</v>
       </c>
       <c r="E2">
-        <v>7.075450136768274</v>
+        <v>6.945875466635148</v>
       </c>
       <c r="F2">
-        <v>31.16979482879349</v>
+        <v>29.04676875611417</v>
       </c>
       <c r="G2">
-        <v>40.67831295781501</v>
+        <v>37.33831990125358</v>
       </c>
       <c r="I2">
-        <v>5.060713128786594</v>
+        <v>4.658669701735704</v>
       </c>
       <c r="J2">
-        <v>13.62057722593071</v>
+        <v>12.69614934812796</v>
       </c>
       <c r="K2">
-        <v>22.41347683009123</v>
+        <v>20.57360746348555</v>
       </c>
       <c r="L2">
-        <v>6.230041959370678</v>
+        <v>15.49696846823108</v>
       </c>
       <c r="M2">
-        <v>10.42156828855027</v>
+        <v>14.95115735008529</v>
       </c>
       <c r="N2">
-        <v>6.641670545920442</v>
+        <v>6.051373038651962</v>
       </c>
       <c r="O2">
-        <v>9.815941463891798</v>
+        <v>10.65576640966265</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.90106094273773</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.759309019016913</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.66888167003618</v>
+        <v>11.39974176089781</v>
       </c>
       <c r="C3">
-        <v>6.10927662941708</v>
+        <v>6.218004255510406</v>
       </c>
       <c r="D3">
-        <v>3.569250083417366</v>
+        <v>3.84484190110466</v>
       </c>
       <c r="E3">
-        <v>7.074562466423617</v>
+        <v>6.949260126583209</v>
       </c>
       <c r="F3">
-        <v>30.88164552989544</v>
+        <v>28.88216889110803</v>
       </c>
       <c r="G3">
-        <v>40.19589292787028</v>
+        <v>37.16954209528664</v>
       </c>
       <c r="I3">
-        <v>5.279022550038719</v>
+        <v>4.847256157412132</v>
       </c>
       <c r="J3">
-        <v>13.61094838457187</v>
+        <v>12.6710214585379</v>
       </c>
       <c r="K3">
-        <v>22.37807307494235</v>
+        <v>20.62695507922867</v>
       </c>
       <c r="L3">
-        <v>6.255267776641267</v>
+        <v>15.58558421556275</v>
       </c>
       <c r="M3">
-        <v>9.770006626073615</v>
+        <v>14.97953189319004</v>
       </c>
       <c r="N3">
-        <v>6.603990410174498</v>
+        <v>6.076815756121646</v>
       </c>
       <c r="O3">
-        <v>9.548339592085901</v>
+        <v>9.996889778683284</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.849560593250619</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.468947013858079</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.18572201281845</v>
+        <v>10.91143688088696</v>
       </c>
       <c r="C4">
-        <v>5.885812743207723</v>
+        <v>5.931765997725233</v>
       </c>
       <c r="D4">
-        <v>3.513715369083861</v>
+        <v>3.776200758172236</v>
       </c>
       <c r="E4">
-        <v>7.075456398787543</v>
+        <v>6.952739858705437</v>
       </c>
       <c r="F4">
-        <v>30.71291746461064</v>
+        <v>28.78803159026484</v>
       </c>
       <c r="G4">
-        <v>39.90910332614278</v>
+        <v>37.07898537723277</v>
       </c>
       <c r="I4">
-        <v>5.418304163756693</v>
+        <v>4.967889879898373</v>
       </c>
       <c r="J4">
-        <v>13.60837915293144</v>
+        <v>12.65623891626915</v>
       </c>
       <c r="K4">
-        <v>22.36043624776456</v>
+        <v>20.66246187888961</v>
       </c>
       <c r="L4">
-        <v>6.271125211760357</v>
+        <v>15.63770774466841</v>
       </c>
       <c r="M4">
-        <v>9.347982183442431</v>
+        <v>15.01370117744445</v>
       </c>
       <c r="N4">
-        <v>6.584278747520196</v>
+        <v>6.092790810056282</v>
       </c>
       <c r="O4">
-        <v>9.383647051838077</v>
+        <v>9.570209732573296</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.821479289989727</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.289049787204815</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.98131636024779</v>
+        <v>10.70435606537599</v>
       </c>
       <c r="C5">
-        <v>5.798759706456894</v>
+        <v>5.818792592854789</v>
       </c>
       <c r="D5">
-        <v>3.493517989060229</v>
+        <v>3.750511721303277</v>
       </c>
       <c r="E5">
-        <v>7.075783860401512</v>
+        <v>6.954159050719225</v>
       </c>
       <c r="F5">
-        <v>30.6332522394243</v>
+        <v>28.73955244822538</v>
       </c>
       <c r="G5">
-        <v>39.77195340260361</v>
+        <v>37.02501087776519</v>
       </c>
       <c r="I5">
-        <v>5.478669314964423</v>
+        <v>5.020880849416062</v>
       </c>
       <c r="J5">
-        <v>13.60387277192371</v>
+        <v>12.64632620132175</v>
       </c>
       <c r="K5">
-        <v>22.3446607346843</v>
+        <v>20.66912241626022</v>
       </c>
       <c r="L5">
-        <v>6.277231628223166</v>
+        <v>15.6504267311907</v>
       </c>
       <c r="M5">
-        <v>9.171792980484556</v>
+        <v>15.02683475047986</v>
       </c>
       <c r="N5">
-        <v>6.57842347800679</v>
+        <v>6.099027304325785</v>
       </c>
       <c r="O5">
-        <v>9.317175108299141</v>
+        <v>9.392001198923547</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.812154416265789</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.216035587514709</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.94492599255168</v>
+        <v>10.6675650221957</v>
       </c>
       <c r="C6">
-        <v>5.791395772284282</v>
+        <v>5.807849594857403</v>
       </c>
       <c r="D6">
-        <v>3.492819306990549</v>
+        <v>3.748737368790721</v>
       </c>
       <c r="E6">
-        <v>7.075375161469181</v>
+        <v>6.953988891780691</v>
       </c>
       <c r="F6">
-        <v>30.60429220970519</v>
+        <v>28.71714967038997</v>
       </c>
       <c r="G6">
-        <v>39.721606504993</v>
+        <v>36.99149841395995</v>
       </c>
       <c r="I6">
-        <v>5.491648281767309</v>
+        <v>5.033064995808123</v>
       </c>
       <c r="J6">
-        <v>13.59793974947408</v>
+        <v>12.63974203125464</v>
       </c>
       <c r="K6">
-        <v>22.33037337494881</v>
+        <v>20.65991383996472</v>
       </c>
       <c r="L6">
-        <v>6.277701265035467</v>
+        <v>15.64280717375985</v>
       </c>
       <c r="M6">
-        <v>9.143804298284731</v>
+        <v>15.0232078426065</v>
       </c>
       <c r="N6">
-        <v>6.579124250093738</v>
+        <v>6.099624100625349</v>
       </c>
       <c r="O6">
-        <v>9.306929907645882</v>
+        <v>9.36355669007928</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.812166976366273</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.204626123429177</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17734655294387</v>
+        <v>10.90514321279292</v>
       </c>
       <c r="C7">
-        <v>5.90395157220787</v>
+        <v>5.943762504657175</v>
       </c>
       <c r="D7">
-        <v>3.520568597617241</v>
+        <v>3.788519899934538</v>
       </c>
       <c r="E7">
-        <v>7.074138658691494</v>
+        <v>6.952845671322922</v>
       </c>
       <c r="F7">
-        <v>30.66871057532594</v>
+        <v>28.7255004629068</v>
       </c>
       <c r="G7">
-        <v>39.83189511873555</v>
+        <v>37.05739252141502</v>
       </c>
       <c r="I7">
-        <v>5.426737288402907</v>
+        <v>4.978107971901278</v>
       </c>
       <c r="J7">
-        <v>13.59405800961148</v>
+        <v>12.60098762633554</v>
       </c>
       <c r="K7">
-        <v>22.32826044227434</v>
+        <v>20.62108276967763</v>
       </c>
       <c r="L7">
-        <v>6.269718959432584</v>
+        <v>15.5997122874007</v>
       </c>
       <c r="M7">
-        <v>9.349903126737487</v>
+        <v>14.98892341581387</v>
       </c>
       <c r="N7">
-        <v>6.588606571712334</v>
+        <v>6.091363649481522</v>
       </c>
       <c r="O7">
-        <v>9.384867739645976</v>
+        <v>9.569711121731693</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.825518110272847</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.29083787891501</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.1573015602463</v>
+        <v>11.89758325346082</v>
       </c>
       <c r="C8">
-        <v>6.365309999586569</v>
+        <v>6.515769456663572</v>
       </c>
       <c r="D8">
-        <v>3.638467989787412</v>
+        <v>3.946654918197529</v>
       </c>
       <c r="E8">
-        <v>7.073108604012165</v>
+        <v>6.949391968627052</v>
       </c>
       <c r="F8">
-        <v>31.01259353176988</v>
+        <v>28.86387270272618</v>
       </c>
       <c r="G8">
-        <v>40.41215159435829</v>
+        <v>37.34441282544713</v>
       </c>
       <c r="I8">
-        <v>5.144554098619875</v>
+        <v>4.736084773899553</v>
       </c>
       <c r="J8">
-        <v>13.59787195466975</v>
+        <v>12.53398231784473</v>
       </c>
       <c r="K8">
-        <v>22.35850987677589</v>
+        <v>20.51132340538951</v>
       </c>
       <c r="L8">
-        <v>6.236757220585052</v>
+        <v>15.45827196461748</v>
       </c>
       <c r="M8">
-        <v>10.20671731606954</v>
+        <v>14.90518347784598</v>
       </c>
       <c r="N8">
-        <v>6.633716938681851</v>
+        <v>6.057586311086335</v>
       </c>
       <c r="O8">
-        <v>9.726428857986861</v>
+        <v>10.43169180719362</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.888076180861622</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.664494230839745</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.89854900153269</v>
+        <v>13.7266327962751</v>
       </c>
       <c r="C9">
-        <v>7.178841477407897</v>
+        <v>7.541166348937358</v>
       </c>
       <c r="D9">
-        <v>3.86404155948377</v>
+        <v>4.228036154855206</v>
       </c>
       <c r="E9">
-        <v>7.084964924399722</v>
+        <v>6.951335460338662</v>
       </c>
       <c r="F9">
-        <v>31.82752471552686</v>
+        <v>29.34304492639687</v>
       </c>
       <c r="G9">
-        <v>41.75539728496909</v>
+        <v>37.96310327244499</v>
       </c>
       <c r="I9">
-        <v>4.619325356982337</v>
+        <v>4.282153287375372</v>
       </c>
       <c r="J9">
-        <v>13.65792866770234</v>
+        <v>12.58081618804345</v>
       </c>
       <c r="K9">
-        <v>22.50793461321183</v>
+        <v>20.41673429931561</v>
       </c>
       <c r="L9">
-        <v>6.177485104276109</v>
+        <v>15.24943159526755</v>
       </c>
       <c r="M9">
-        <v>11.70603928821111</v>
+        <v>14.9378936584775</v>
       </c>
       <c r="N9">
-        <v>6.741905114194226</v>
+        <v>5.99720368503981</v>
       </c>
       <c r="O9">
-        <v>10.38595627776195</v>
+        <v>11.94727609803114</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.031426812377122</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.37402943251497</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.05679509284428</v>
+        <v>14.93240315124116</v>
       </c>
       <c r="C10">
-        <v>7.748357645165749</v>
+        <v>8.213073627345221</v>
       </c>
       <c r="D10">
-        <v>4.035207447726297</v>
+        <v>4.468893933475642</v>
       </c>
       <c r="E10">
-        <v>7.100232509247477</v>
+        <v>6.966632661470686</v>
       </c>
       <c r="F10">
-        <v>32.44554922487979</v>
+        <v>29.59061944903387</v>
       </c>
       <c r="G10">
-        <v>42.75076004631212</v>
+        <v>38.72928289156237</v>
       </c>
       <c r="I10">
-        <v>4.261129545317329</v>
+        <v>3.979022265811552</v>
       </c>
       <c r="J10">
-        <v>13.71314516581666</v>
+        <v>12.38435503858361</v>
       </c>
       <c r="K10">
-        <v>22.62439301625427</v>
+        <v>20.27624245689222</v>
       </c>
       <c r="L10">
-        <v>6.13482952647458</v>
+        <v>15.01899297406408</v>
       </c>
       <c r="M10">
-        <v>12.70403308919489</v>
+        <v>14.980240109753</v>
       </c>
       <c r="N10">
-        <v>6.840576650419439</v>
+        <v>5.952373479304309</v>
       </c>
       <c r="O10">
-        <v>10.86258225431455</v>
+        <v>12.94597055684481</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.155804519924002</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.88409913479336</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.57529142369988</v>
+        <v>15.45395506166795</v>
       </c>
       <c r="C11">
-        <v>8.023730466651461</v>
+        <v>8.473560425609323</v>
       </c>
       <c r="D11">
-        <v>4.123009559913216</v>
+        <v>4.640617130063514</v>
       </c>
       <c r="E11">
-        <v>7.106675977952907</v>
+        <v>6.986737163449829</v>
       </c>
       <c r="F11">
-        <v>32.67069026719762</v>
+        <v>29.4386975763271</v>
       </c>
       <c r="G11">
-        <v>43.10151607348269</v>
+        <v>39.47673629146372</v>
       </c>
       <c r="I11">
-        <v>4.116221988602555</v>
+        <v>3.866638225845201</v>
       </c>
       <c r="J11">
-        <v>13.72021905872249</v>
+        <v>11.89770143752995</v>
       </c>
       <c r="K11">
-        <v>22.63271190939949</v>
+        <v>20.04517851734474</v>
       </c>
       <c r="L11">
-        <v>6.11357422491373</v>
+        <v>14.78668839201216</v>
       </c>
       <c r="M11">
-        <v>13.14052177095398</v>
+        <v>14.88415729399247</v>
       </c>
       <c r="N11">
-        <v>6.895943941314419</v>
+        <v>5.928201939482583</v>
       </c>
       <c r="O11">
-        <v>11.07920275222399</v>
+        <v>13.3664806639157</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.222114929889285</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.11989718966325</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.77416681286509</v>
+        <v>15.6522702382243</v>
       </c>
       <c r="C12">
-        <v>8.113643666740652</v>
+        <v>8.549921112722389</v>
       </c>
       <c r="D12">
-        <v>4.150929945511747</v>
+        <v>4.707061115262477</v>
       </c>
       <c r="E12">
-        <v>7.110470132666095</v>
+        <v>6.997440035134221</v>
       </c>
       <c r="F12">
-        <v>32.79198160519749</v>
+        <v>29.38693993819433</v>
       </c>
       <c r="G12">
-        <v>43.2957574678644</v>
+        <v>39.88104699216611</v>
       </c>
       <c r="I12">
-        <v>4.055302845934966</v>
+        <v>3.817365422298268</v>
       </c>
       <c r="J12">
-        <v>13.73541867407448</v>
+        <v>11.68513581726563</v>
       </c>
       <c r="K12">
-        <v>22.66329725472413</v>
+        <v>19.96493995070441</v>
       </c>
       <c r="L12">
-        <v>6.106727854825885</v>
+        <v>14.7050461832598</v>
       </c>
       <c r="M12">
-        <v>13.29978055184271</v>
+        <v>14.85420197226584</v>
       </c>
       <c r="N12">
-        <v>6.913845051951258</v>
+        <v>5.919670029244858</v>
       </c>
       <c r="O12">
-        <v>11.15935709127971</v>
+        <v>13.51807934318672</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.24430863971296</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.20780846133222</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.73236200924026</v>
+        <v>15.6104649748555</v>
       </c>
       <c r="C13">
-        <v>8.091727652866588</v>
+        <v>8.531079020954937</v>
       </c>
       <c r="D13">
-        <v>4.143865411854884</v>
+        <v>4.691472719798453</v>
       </c>
       <c r="E13">
-        <v>7.109867636919377</v>
+        <v>6.995239443641414</v>
       </c>
       <c r="F13">
-        <v>32.77273153537551</v>
+        <v>29.40541798539748</v>
       </c>
       <c r="G13">
-        <v>43.26580748188978</v>
+        <v>39.80182641618523</v>
       </c>
       <c r="I13">
-        <v>4.066958562683079</v>
+        <v>3.826245085154914</v>
       </c>
       <c r="J13">
-        <v>13.73449691001727</v>
+        <v>11.73427391965218</v>
       </c>
       <c r="K13">
-        <v>22.66200803599136</v>
+        <v>19.9874126081066</v>
       </c>
       <c r="L13">
-        <v>6.108431856742011</v>
+        <v>14.72644148850818</v>
       </c>
       <c r="M13">
-        <v>13.26507580697095</v>
+        <v>14.86463144232718</v>
       </c>
       <c r="N13">
-        <v>6.909245284846049</v>
+        <v>5.921685930048231</v>
       </c>
       <c r="O13">
-        <v>11.1418396548912</v>
+        <v>13.48513357209727</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.238841115700126</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.18863001841578</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.59209687614537</v>
+        <v>15.47066140097259</v>
       </c>
       <c r="C14">
-        <v>8.030036745339594</v>
+        <v>8.478823463506654</v>
       </c>
       <c r="D14">
-        <v>4.12485759565286</v>
+        <v>4.645531225984338</v>
       </c>
       <c r="E14">
-        <v>7.107079114006567</v>
+        <v>6.987659782481099</v>
       </c>
       <c r="F14">
-        <v>32.68359525851552</v>
+        <v>29.4375935375738</v>
       </c>
       <c r="G14">
-        <v>43.1225598182553</v>
+        <v>39.5132705475929</v>
       </c>
       <c r="I14">
-        <v>4.110584811291671</v>
+        <v>3.861843562590669</v>
       </c>
       <c r="J14">
-        <v>13.72246922780432</v>
+        <v>11.88172081307539</v>
       </c>
       <c r="K14">
-        <v>22.63748086790123</v>
+        <v>20.04080912793592</v>
       </c>
       <c r="L14">
-        <v>6.113108618185251</v>
+        <v>14.78161883568025</v>
       </c>
       <c r="M14">
-        <v>13.15345359783278</v>
+        <v>14.883394599773</v>
       </c>
       <c r="N14">
-        <v>6.897099036986198</v>
+        <v>5.927576571498396</v>
       </c>
       <c r="O14">
-        <v>11.0856883760846</v>
+        <v>13.37883105014884</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.223647300798309</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.12702459860544</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50394554583788</v>
+        <v>15.38308842264023</v>
       </c>
       <c r="C15">
-        <v>7.997304340291212</v>
+        <v>8.451287672604893</v>
       </c>
       <c r="D15">
-        <v>4.115306604615636</v>
+        <v>4.620200589323932</v>
       </c>
       <c r="E15">
-        <v>7.104957686873766</v>
+        <v>6.982901855947103</v>
       </c>
       <c r="F15">
-        <v>32.6154420350767</v>
+        <v>29.44167517362985</v>
       </c>
       <c r="G15">
-        <v>43.01132143952646</v>
+        <v>39.32385521936772</v>
       </c>
       <c r="I15">
-        <v>4.140268623258896</v>
+        <v>3.887175900408851</v>
       </c>
       <c r="J15">
-        <v>13.71048614094756</v>
+        <v>11.96354360043142</v>
       </c>
       <c r="K15">
-        <v>22.61203315945288</v>
+        <v>20.06255093745339</v>
       </c>
       <c r="L15">
-        <v>6.11552142568648</v>
+        <v>14.80731058147702</v>
       </c>
       <c r="M15">
-        <v>13.08576093796673</v>
+        <v>14.88658907069789</v>
       </c>
       <c r="N15">
-        <v>6.891155409935738</v>
+        <v>5.930819058444089</v>
       </c>
       <c r="O15">
-        <v>11.05178506277226</v>
+        <v>13.31410383127859</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.215721178811825</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.08977709576299</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.01081909640185</v>
+        <v>14.88464717398099</v>
       </c>
       <c r="C16">
-        <v>7.77483909041529</v>
+        <v>8.242556276417885</v>
       </c>
       <c r="D16">
-        <v>4.047350988719608</v>
+        <v>4.475343153093926</v>
       </c>
       <c r="E16">
-        <v>7.096097229128927</v>
+        <v>6.962272524642166</v>
       </c>
       <c r="F16">
-        <v>32.31449681995307</v>
+        <v>29.49238479353519</v>
       </c>
       <c r="G16">
-        <v>42.5267192391601</v>
+        <v>38.50710732554255</v>
       </c>
       <c r="I16">
-        <v>4.293680622662639</v>
+        <v>4.013484115407792</v>
       </c>
       <c r="J16">
-        <v>13.67300419758654</v>
+        <v>12.37636644444637</v>
       </c>
       <c r="K16">
-        <v>22.53483362827164</v>
+        <v>20.21300447501615</v>
       </c>
       <c r="L16">
-        <v>6.13233885911071</v>
+        <v>14.97456370604078</v>
       </c>
       <c r="M16">
-        <v>12.68451740570485</v>
+        <v>14.92739293978545</v>
       </c>
       <c r="N16">
-        <v>6.849116655201572</v>
+        <v>5.951035890151764</v>
       </c>
       <c r="O16">
-        <v>10.85313178148516</v>
+        <v>12.92667963302211</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.162775811882757</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.87302896294807</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.71418983561048</v>
+        <v>14.57323590864583</v>
       </c>
       <c r="C17">
-        <v>7.636421965164058</v>
+        <v>8.099730493379903</v>
       </c>
       <c r="D17">
-        <v>4.005669241893191</v>
+        <v>4.397616707461867</v>
       </c>
       <c r="E17">
-        <v>7.091088075804622</v>
+        <v>6.953054690919378</v>
       </c>
       <c r="F17">
-        <v>32.13239147931929</v>
+        <v>29.47989288237335</v>
       </c>
       <c r="G17">
-        <v>42.23227960329078</v>
+        <v>38.11786129443288</v>
       </c>
       <c r="I17">
-        <v>4.389083056721466</v>
+        <v>4.093265153533735</v>
       </c>
       <c r="J17">
-        <v>13.65124152320034</v>
+        <v>12.55329559286869</v>
       </c>
       <c r="K17">
-        <v>22.48913972385808</v>
+        <v>20.2788558268464</v>
       </c>
       <c r="L17">
-        <v>6.142742661152532</v>
+        <v>15.05737060454609</v>
       </c>
       <c r="M17">
-        <v>12.43261794023758</v>
+        <v>14.9349353191625</v>
       </c>
       <c r="N17">
-        <v>6.824258960630915</v>
+        <v>5.963005942659213</v>
       </c>
       <c r="O17">
-        <v>10.73051787508607</v>
+        <v>12.68000234090919</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.131113393285396</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.74004013711328</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.54521800589395</v>
+        <v>14.39616003307645</v>
       </c>
       <c r="C18">
-        <v>7.542158533137838</v>
+        <v>7.9971312144774</v>
       </c>
       <c r="D18">
-        <v>3.976182657779396</v>
+        <v>4.351736179527988</v>
       </c>
       <c r="E18">
-        <v>7.089500358716112</v>
+        <v>6.949933826516958</v>
       </c>
       <c r="F18">
-        <v>32.06418664644784</v>
+        <v>29.48931606078295</v>
       </c>
       <c r="G18">
-        <v>42.12560864657772</v>
+        <v>37.98811712860051</v>
       </c>
       <c r="I18">
-        <v>4.43694485256986</v>
+        <v>4.131176793036887</v>
       </c>
       <c r="J18">
-        <v>13.65125332401872</v>
+        <v>12.63657342653547</v>
       </c>
       <c r="K18">
-        <v>22.49052890872626</v>
+        <v>20.33067606151907</v>
       </c>
       <c r="L18">
-        <v>6.149942927989171</v>
+        <v>15.11581148628397</v>
       </c>
       <c r="M18">
-        <v>12.28265149564004</v>
+        <v>14.95069207041622</v>
       </c>
       <c r="N18">
-        <v>6.806608779201714</v>
+        <v>5.970620052461493</v>
       </c>
       <c r="O18">
-        <v>10.65825279637391</v>
+        <v>12.53200559412777</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.10978111235027</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.66222212953773</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.48443556497927</v>
+        <v>14.33266984357202</v>
       </c>
       <c r="C19">
-        <v>7.520838010849483</v>
+        <v>7.972926961857785</v>
       </c>
       <c r="D19">
-        <v>3.9704544669783</v>
+        <v>4.340869033504802</v>
       </c>
       <c r="E19">
-        <v>7.08811205610675</v>
+        <v>6.948298620049746</v>
       </c>
       <c r="F19">
-        <v>32.01380606246832</v>
+        <v>29.46514631023726</v>
       </c>
       <c r="G19">
-        <v>42.04218218393049</v>
+        <v>37.90789529028545</v>
       </c>
       <c r="I19">
-        <v>4.458960572185458</v>
+        <v>4.150930408260039</v>
       </c>
       <c r="J19">
-        <v>13.64201374903138</v>
+        <v>12.65138763782981</v>
       </c>
       <c r="K19">
-        <v>22.47022533854668</v>
+        <v>20.32866200136041</v>
       </c>
       <c r="L19">
-        <v>6.151473843771026</v>
+        <v>15.12038839024546</v>
       </c>
       <c r="M19">
-        <v>12.23378758128918</v>
+        <v>14.9416753953377</v>
       </c>
       <c r="N19">
-        <v>6.803538330225638</v>
+        <v>5.972485380785169</v>
       </c>
       <c r="O19">
-        <v>10.63488776172413</v>
+        <v>12.48345934329101</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.105264673788564</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.63692758723588</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.74633844875916</v>
+        <v>14.60692177906672</v>
       </c>
       <c r="C20">
-        <v>7.650148956956736</v>
+        <v>8.114346630205214</v>
       </c>
       <c r="D20">
-        <v>4.009675226698842</v>
+        <v>4.405070755350812</v>
       </c>
       <c r="E20">
-        <v>7.09169438011015</v>
+        <v>6.953990991676308</v>
       </c>
       <c r="F20">
-        <v>32.15446445346539</v>
+        <v>29.48534693266006</v>
       </c>
       <c r="G20">
-        <v>42.26832761415239</v>
+        <v>38.15957542812174</v>
       </c>
       <c r="I20">
-        <v>4.378282909505931</v>
+        <v>4.083978229424083</v>
       </c>
       <c r="J20">
-        <v>13.65445848592138</v>
+        <v>12.53831103543764</v>
       </c>
       <c r="K20">
-        <v>22.49606132125129</v>
+        <v>20.27464663142578</v>
       </c>
       <c r="L20">
-        <v>6.141724283536446</v>
+        <v>15.05071636130554</v>
       </c>
       <c r="M20">
-        <v>12.45942294712819</v>
+        <v>14.93612139209759</v>
       </c>
       <c r="N20">
-        <v>6.826580736112119</v>
+        <v>5.961817433006746</v>
       </c>
       <c r="O20">
-        <v>10.74348183596478</v>
+        <v>12.70639082747126</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.134182401193478</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.75408952313876</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.62874649398539</v>
+        <v>15.51140973539888</v>
       </c>
       <c r="C21">
-        <v>8.062834542794402</v>
+        <v>8.488747478402134</v>
       </c>
       <c r="D21">
-        <v>4.136356146557119</v>
+        <v>4.683596758293093</v>
       </c>
       <c r="E21">
-        <v>7.106628976923234</v>
+        <v>6.99351280014149</v>
       </c>
       <c r="F21">
-        <v>32.6708446428464</v>
+        <v>29.31770349034937</v>
       </c>
       <c r="G21">
-        <v>43.09752699288014</v>
+        <v>39.70765016932395</v>
       </c>
       <c r="I21">
-        <v>4.105980649289235</v>
+        <v>3.862905716776539</v>
       </c>
       <c r="J21">
-        <v>13.71263182055344</v>
+        <v>11.70081127682194</v>
       </c>
       <c r="K21">
-        <v>22.61474859062857</v>
+        <v>19.95492965595349</v>
       </c>
       <c r="L21">
-        <v>6.110436715210909</v>
+        <v>14.71334486514019</v>
       </c>
       <c r="M21">
-        <v>13.18941529614663</v>
+        <v>14.82353064050084</v>
       </c>
       <c r="N21">
-        <v>6.904697666291816</v>
+        <v>5.924019332006184</v>
       </c>
       <c r="O21">
-        <v>11.10374829915737</v>
+        <v>13.40755657106161</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.231788693620721</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.14859573942828</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.20412859182874</v>
+        <v>16.0833655571419</v>
       </c>
       <c r="C22">
-        <v>8.307669364400404</v>
+        <v>8.701895923104235</v>
       </c>
       <c r="D22">
-        <v>4.211576443109006</v>
+        <v>4.864289600168741</v>
       </c>
       <c r="E22">
-        <v>7.119401902046811</v>
+        <v>7.025236643529105</v>
       </c>
       <c r="F22">
-        <v>33.06586959425048</v>
+        <v>29.23022445146895</v>
       </c>
       <c r="G22">
-        <v>43.73371949524868</v>
+        <v>40.90565395086358</v>
       </c>
       <c r="I22">
-        <v>3.921602032063835</v>
+        <v>3.70979068133629</v>
       </c>
       <c r="J22">
-        <v>13.77173044389256</v>
+        <v>11.16331578412215</v>
       </c>
       <c r="K22">
-        <v>22.73586682888046</v>
+        <v>19.76289983811079</v>
       </c>
       <c r="L22">
-        <v>6.091909055864601</v>
+        <v>14.50842103555479</v>
       </c>
       <c r="M22">
-        <v>13.64387963845802</v>
+        <v>14.76992619843463</v>
       </c>
       <c r="N22">
-        <v>6.953675901303646</v>
+        <v>5.900611433392389</v>
       </c>
       <c r="O22">
-        <v>11.33455507539934</v>
+        <v>13.8422734570579</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.293357764460737</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.40067182617376</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.9049689102901</v>
+        <v>15.78280844914149</v>
       </c>
       <c r="C23">
-        <v>8.160083741571448</v>
+        <v>8.585091242818029</v>
       </c>
       <c r="D23">
-        <v>4.164360201419806</v>
+        <v>4.747445446448268</v>
       </c>
       <c r="E23">
-        <v>7.11397536342671</v>
+        <v>7.005863760776119</v>
       </c>
       <c r="F23">
-        <v>32.90102241737966</v>
+        <v>29.37333465162428</v>
       </c>
       <c r="G23">
-        <v>43.47387577967299</v>
+        <v>40.20954540200171</v>
       </c>
       <c r="I23">
-        <v>4.009967087646711</v>
+        <v>3.778604883289437</v>
       </c>
       <c r="J23">
-        <v>13.75587510083742</v>
+        <v>11.54635819199293</v>
       </c>
       <c r="K23">
-        <v>22.70671681849613</v>
+        <v>19.9283778619313</v>
       </c>
       <c r="L23">
-        <v>6.103334413475412</v>
+        <v>14.66379131824787</v>
       </c>
       <c r="M23">
-        <v>13.39934250132755</v>
+        <v>14.8469859939764</v>
       </c>
       <c r="N23">
-        <v>6.922394501215489</v>
+        <v>5.914829967227796</v>
       </c>
       <c r="O23">
-        <v>11.20977790811314</v>
+        <v>13.61235320218264</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.255818255845599</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.26344078945417</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.740391823017</v>
+        <v>14.60033458974168</v>
       </c>
       <c r="C24">
-        <v>7.614812456211151</v>
+        <v>8.076561929775385</v>
       </c>
       <c r="D24">
-        <v>3.996265433259508</v>
+        <v>4.390807720725229</v>
       </c>
       <c r="E24">
-        <v>7.093825039841577</v>
+        <v>6.955687980222761</v>
       </c>
       <c r="F24">
-        <v>32.21959093917472</v>
+        <v>29.5505843466529</v>
       </c>
       <c r="G24">
-        <v>42.38192707584474</v>
+        <v>38.25768203485094</v>
       </c>
       <c r="I24">
-        <v>4.367890908013445</v>
+        <v>4.07019144673311</v>
       </c>
       <c r="J24">
-        <v>13.67854875110173</v>
+        <v>12.56769022084888</v>
       </c>
       <c r="K24">
-        <v>22.55016997023377</v>
+        <v>20.32578528857587</v>
       </c>
       <c r="L24">
-        <v>6.144684886703926</v>
+        <v>15.09169661601071</v>
       </c>
       <c r="M24">
-        <v>12.44112556960292</v>
+        <v>14.97243719662575</v>
       </c>
       <c r="N24">
-        <v>6.817741544073559</v>
+        <v>5.964225724512959</v>
       </c>
       <c r="O24">
-        <v>10.7345097928043</v>
+        <v>12.68866113882594</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.125545300075562</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.74489854860762</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43931080089694</v>
+        <v>13.24582299567727</v>
       </c>
       <c r="C25">
-        <v>6.995375865743266</v>
+        <v>7.315613158851519</v>
       </c>
       <c r="D25">
-        <v>3.814296609602287</v>
+        <v>4.154856993309093</v>
       </c>
       <c r="E25">
-        <v>7.078153678336448</v>
+        <v>6.94572365982936</v>
       </c>
       <c r="F25">
-        <v>31.52531649152795</v>
+        <v>29.17046289003201</v>
       </c>
       <c r="G25">
-        <v>41.25439247536828</v>
+        <v>37.6007748127908</v>
       </c>
       <c r="I25">
-        <v>4.770721808653736</v>
+        <v>4.41583329856632</v>
       </c>
       <c r="J25">
-        <v>13.613468105956</v>
+        <v>12.60216269514735</v>
       </c>
       <c r="K25">
-        <v>22.40735569089745</v>
+        <v>20.40920614769595</v>
       </c>
       <c r="L25">
-        <v>6.19072913656699</v>
+        <v>15.28305486641216</v>
       </c>
       <c r="M25">
-        <v>11.32550106375679</v>
+        <v>14.8927613832549</v>
       </c>
       <c r="N25">
-        <v>6.717364814571157</v>
+        <v>6.011737528584544</v>
       </c>
       <c r="O25">
-        <v>10.21203916080847</v>
+        <v>11.56469879059823</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.996779388943161</v>
       </c>
       <c r="Q25">
+        <v>10.1864947309549</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
